--- a/Documentation/BOMs/Watch Main BOM.xlsx
+++ b/Documentation/BOMs/Watch Main BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF15490-ED02-4745-9015-9E7D45E1CE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D74D49D-57EB-4854-89F8-42115FE829F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t xml:space="preserve">DFE201612E-2R2M=P2 </t>
   </si>
@@ -342,6 +342,42 @@
   </si>
   <si>
     <t>nRF Regulator inductors</t>
+  </si>
+  <si>
+    <t>100nF, 0402</t>
+  </si>
+  <si>
+    <t>10uF, 0402</t>
+  </si>
+  <si>
+    <t>1uF, 0402</t>
+  </si>
+  <si>
+    <t>6pF, 0402</t>
+  </si>
+  <si>
+    <t>2.2uF, 0402</t>
+  </si>
+  <si>
+    <t>4.7uF, 0402</t>
+  </si>
+  <si>
+    <t>10nF, 0402</t>
+  </si>
+  <si>
+    <t>22uF, 0402</t>
+  </si>
+  <si>
+    <t>2.2nF, 0402</t>
+  </si>
+  <si>
+    <t>0.7pF, 0402</t>
+  </si>
+  <si>
+    <t>120pF, 0402</t>
+  </si>
+  <si>
+    <t>43pF</t>
   </si>
 </sst>
 </file>
@@ -683,11 +719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +731,7 @@
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.109375" customWidth="1"/>
     <col min="7" max="7" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1001,295 +1037,382 @@
         <v>17</v>
       </c>
     </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F44" s="3"/>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F45" s="3"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57">
         <v>2</v>
       </c>
-      <c r="F46" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58">
+        <v>36</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63">
         <v>2</v>
       </c>
-      <c r="F47" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66">
         <v>2</v>
       </c>
-      <c r="F48" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="G48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F50" s="3"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="G52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="G53" t="s">
-        <v>83</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="G54" t="s">
-        <v>90</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="F66" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G66" t="s">
         <v>98</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>24</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B69" t="s">
         <v>25</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C69" t="s">
         <v>26</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
         <v>0.64</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G69" t="s">
         <v>27</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="C71" s="4"/>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
         <v>50</v>
       </c>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
         <v>58</v>
       </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
         <v>0.82</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G72" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
         <v>62</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
         <v>1.4</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G73" t="s">
         <v>73</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>72</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
         <v>2.04</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G74" t="s">
         <v>74</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F69" s="3"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F79" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I46" r:id="rId1" xr:uid="{79C09E4D-BADE-4B4A-BEDF-E521AF2CD70D}"/>
+    <hyperlink ref="I41" r:id="rId1" xr:uid="{79C09E4D-BADE-4B4A-BEDF-E521AF2CD70D}"/>
     <hyperlink ref="I6" r:id="rId2" xr:uid="{F4A2A264-AC49-480B-919C-77721D13D06A}"/>
     <hyperlink ref="I39" r:id="rId3" xr:uid="{B2C0CAA1-46A0-4E27-9EB4-036D712BDB7E}"/>
-    <hyperlink ref="I47" r:id="rId4" xr:uid="{E042BE92-CD58-4075-A071-4B3A09485DEE}"/>
+    <hyperlink ref="I42" r:id="rId4" xr:uid="{E042BE92-CD58-4075-A071-4B3A09485DEE}"/>
     <hyperlink ref="I17" r:id="rId5" xr:uid="{A8D9A3BD-F369-470C-AD04-CFBD40E8EB05}"/>
     <hyperlink ref="I10" r:id="rId6" xr:uid="{923AFC17-08B1-4AD5-AB4A-F49FEEFA3BEC}"/>
     <hyperlink ref="I11" r:id="rId7" xr:uid="{C4894D1D-EE76-4C48-BCEF-A73F596BAA3D}"/>
@@ -1302,15 +1425,15 @@
     <hyperlink ref="I22" r:id="rId14" xr:uid="{D09DD33D-D05C-4448-9139-AD94F4FCFA1B}"/>
     <hyperlink ref="I3" r:id="rId15" xr:uid="{767704FF-C400-4F90-B6F1-9D33B5A14B1C}"/>
     <hyperlink ref="I4" r:id="rId16" xr:uid="{6C239A98-5AD8-44E7-8B22-0BEE5936F859}"/>
-    <hyperlink ref="I64" r:id="rId17" xr:uid="{DF11D2D2-F265-4769-80C5-92206328CB82}"/>
-    <hyperlink ref="I63" r:id="rId18" xr:uid="{8E26E8E6-7491-4A28-A0FC-173E24C5257D}"/>
-    <hyperlink ref="I62" r:id="rId19" xr:uid="{738C619A-46CB-4729-BF40-356AE1BA6342}"/>
-    <hyperlink ref="I59" r:id="rId20" xr:uid="{71B308CD-3568-4BEC-A754-5904C1F26182}"/>
-    <hyperlink ref="I56" r:id="rId21" xr:uid="{EC8C155B-E10F-41CA-941B-05D1EE3807A8}"/>
-    <hyperlink ref="I54" r:id="rId22" xr:uid="{C9E51835-D777-4C8A-8B6D-79598CB9D90D}"/>
-    <hyperlink ref="I53" r:id="rId23" xr:uid="{06406781-6B05-4280-99E0-2007222A2286}"/>
-    <hyperlink ref="I52" r:id="rId24" xr:uid="{3D0B6872-F586-4D57-B586-9244EB0BC9CA}"/>
-    <hyperlink ref="I48" r:id="rId25" xr:uid="{D440671E-DDBF-432C-9599-F06EDF3BD0EB}"/>
+    <hyperlink ref="I74" r:id="rId17" xr:uid="{DF11D2D2-F265-4769-80C5-92206328CB82}"/>
+    <hyperlink ref="I73" r:id="rId18" xr:uid="{8E26E8E6-7491-4A28-A0FC-173E24C5257D}"/>
+    <hyperlink ref="I72" r:id="rId19" xr:uid="{738C619A-46CB-4729-BF40-356AE1BA6342}"/>
+    <hyperlink ref="I69" r:id="rId20" xr:uid="{71B308CD-3568-4BEC-A754-5904C1F26182}"/>
+    <hyperlink ref="I66" r:id="rId21" xr:uid="{EC8C155B-E10F-41CA-941B-05D1EE3807A8}"/>
+    <hyperlink ref="I49" r:id="rId22" xr:uid="{C9E51835-D777-4C8A-8B6D-79598CB9D90D}"/>
+    <hyperlink ref="I48" r:id="rId23" xr:uid="{06406781-6B05-4280-99E0-2007222A2286}"/>
+    <hyperlink ref="I47" r:id="rId24" xr:uid="{3D0B6872-F586-4D57-B586-9244EB0BC9CA}"/>
+    <hyperlink ref="I43" r:id="rId25" xr:uid="{D440671E-DDBF-432C-9599-F06EDF3BD0EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/BOMs/Watch Main BOM.xlsx
+++ b/Documentation/BOMs/Watch Main BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\OneDrive\Documents\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D74D49D-57EB-4854-89F8-42115FE829F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD77908-CFB4-4D54-AD93-97CD90F1DF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="480" windowWidth="27630" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
   <si>
     <t xml:space="preserve">DFE201612E-2R2M=P2 </t>
   </si>
@@ -128,9 +128,6 @@
     <t>Bought?</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>IM70D122V01XTMA1</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>https://www.mouser.co.uk/ProductDetail/STMicroelectronics/TESEO-LIV3FL?qs=sGAEpiMZZMu3sxpa5v1qrtd1MoBwMR%252Bn06QOpIB0k5k%3D</t>
   </si>
   <si>
-    <t>GNSS Modile</t>
-  </si>
-  <si>
     <t>GNSS Saw filter</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t>Capacitors</t>
   </si>
   <si>
-    <t>22uF</t>
-  </si>
-  <si>
     <t>https://www.mouser.co.uk/ProductDetail/Murata-Electronics/GRM158R60J226ME01D?qs=hd1VzrDQEGhRlVgN8RQ1oA%3D%3D</t>
   </si>
   <si>
@@ -377,7 +368,79 @@
     <t>120pF, 0402</t>
   </si>
   <si>
-    <t>43pF</t>
+    <t>220nF, 0402</t>
+  </si>
+  <si>
+    <t>43pF, 0402</t>
+  </si>
+  <si>
+    <t>7.5pF, 0402</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>Resistors 0402</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>0.6nH</t>
+  </si>
+  <si>
+    <t>1.5nH</t>
+  </si>
+  <si>
+    <t>2.2nH</t>
+  </si>
+  <si>
+    <t>7.5nH</t>
+  </si>
+  <si>
+    <t>2.7nH</t>
+  </si>
+  <si>
+    <t>GNSS Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCP45525IMNTWG-H </t>
+  </si>
+  <si>
+    <t>SD Card load switch</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/onsemi/NCP45525IMNTWG-H?qs=xGcJQ%252BnsJwuEDnjYHzk8Zw%3D%3D</t>
+  </si>
+  <si>
+    <t>RT4730WSC</t>
+  </si>
+  <si>
+    <t>AMOLED Power</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Richtek/RT4730WSC?qs=amGC7iS6iy9KQOadwtNmGA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/STMicroelectronics/M24256X-FCU6T-VF?qs=Wj%2FVkw3K%252BMB8rPOzTsJFzg%3D%3D</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M24256X-FCU6T/VF </t>
+  </si>
+  <si>
+    <t>AXG130144</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Panasonic-Industrial-Devices/AXG130144?qs=MNIFWdyJgbpv3UEdzINcSA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -428,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,6 +500,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,25 +785,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -763,12 +829,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -777,18 +843,18 @@
         <v>14.25</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -797,35 +863,66 @@
         <v>7.32</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>3.59</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -834,15 +931,15 @@
         <v>0.44</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -851,15 +948,15 @@
         <v>12.96</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -868,15 +965,15 @@
         <v>0.35</v>
       </c>
       <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -885,15 +982,15 @@
         <v>1.24</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -902,18 +999,18 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>55</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -922,518 +1019,623 @@
         <v>0.96</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5.64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>1.58</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>5.64</v>
-      </c>
-      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2.46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>71</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>66</v>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>119</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>2.46</v>
-      </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>109</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42">
+        <v>36</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42">
+      <c r="E47">
+        <v>13</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="F42" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43">
+      <c r="F48" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="H50" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="H51" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52">
         <v>2</v>
       </c>
-      <c r="F43" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F45" s="3"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="G47" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="G48" t="s">
-        <v>83</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>90</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58">
-        <v>36</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>107</v>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2.62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0.82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="3">
-        <v>0.17699999999999999</v>
+        <v>2.04</v>
       </c>
       <c r="G66" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>50</v>
-      </c>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0.82</v>
-      </c>
-      <c r="G72" t="s">
-        <v>59</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G73" t="s">
-        <v>73</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>2.04</v>
-      </c>
-      <c r="G74" t="s">
-        <v>74</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F79" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I41" r:id="rId1" xr:uid="{79C09E4D-BADE-4B4A-BEDF-E521AF2CD70D}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{F4A2A264-AC49-480B-919C-77721D13D06A}"/>
-    <hyperlink ref="I39" r:id="rId3" xr:uid="{B2C0CAA1-46A0-4E27-9EB4-036D712BDB7E}"/>
-    <hyperlink ref="I42" r:id="rId4" xr:uid="{E042BE92-CD58-4075-A071-4B3A09485DEE}"/>
-    <hyperlink ref="I17" r:id="rId5" xr:uid="{A8D9A3BD-F369-470C-AD04-CFBD40E8EB05}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{923AFC17-08B1-4AD5-AB4A-F49FEEFA3BEC}"/>
-    <hyperlink ref="I11" r:id="rId7" xr:uid="{C4894D1D-EE76-4C48-BCEF-A73F596BAA3D}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{F1E124BF-F8B3-462B-A495-851CF7F46232}"/>
-    <hyperlink ref="I8" r:id="rId9" xr:uid="{0125B906-1A49-48F1-926E-17E98D5F7360}"/>
-    <hyperlink ref="I12" r:id="rId10" xr:uid="{F776EC2B-BBE8-4493-A932-87C91B75736F}"/>
-    <hyperlink ref="I13" r:id="rId11" xr:uid="{6530AEEE-15DA-40CC-9C80-56491B7D2AB5}"/>
-    <hyperlink ref="I21" r:id="rId12" xr:uid="{354B533E-AE6B-4D10-995D-2E2CE7D75D8A}"/>
-    <hyperlink ref="I23" r:id="rId13" xr:uid="{E88D44C0-FCF9-4D68-914D-FB6014E35C39}"/>
-    <hyperlink ref="I22" r:id="rId14" xr:uid="{D09DD33D-D05C-4448-9139-AD94F4FCFA1B}"/>
-    <hyperlink ref="I3" r:id="rId15" xr:uid="{767704FF-C400-4F90-B6F1-9D33B5A14B1C}"/>
-    <hyperlink ref="I4" r:id="rId16" xr:uid="{6C239A98-5AD8-44E7-8B22-0BEE5936F859}"/>
-    <hyperlink ref="I74" r:id="rId17" xr:uid="{DF11D2D2-F265-4769-80C5-92206328CB82}"/>
-    <hyperlink ref="I73" r:id="rId18" xr:uid="{8E26E8E6-7491-4A28-A0FC-173E24C5257D}"/>
-    <hyperlink ref="I72" r:id="rId19" xr:uid="{738C619A-46CB-4729-BF40-356AE1BA6342}"/>
-    <hyperlink ref="I69" r:id="rId20" xr:uid="{71B308CD-3568-4BEC-A754-5904C1F26182}"/>
-    <hyperlink ref="I66" r:id="rId21" xr:uid="{EC8C155B-E10F-41CA-941B-05D1EE3807A8}"/>
-    <hyperlink ref="I49" r:id="rId22" xr:uid="{C9E51835-D777-4C8A-8B6D-79598CB9D90D}"/>
-    <hyperlink ref="I48" r:id="rId23" xr:uid="{06406781-6B05-4280-99E0-2007222A2286}"/>
-    <hyperlink ref="I47" r:id="rId24" xr:uid="{3D0B6872-F586-4D57-B586-9244EB0BC9CA}"/>
-    <hyperlink ref="I43" r:id="rId25" xr:uid="{D440671E-DDBF-432C-9599-F06EDF3BD0EB}"/>
+    <hyperlink ref="I27" r:id="rId1" xr:uid="{79C09E4D-BADE-4B4A-BEDF-E521AF2CD70D}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{F4A2A264-AC49-480B-919C-77721D13D06A}"/>
+    <hyperlink ref="I20" r:id="rId3" xr:uid="{B2C0CAA1-46A0-4E27-9EB4-036D712BDB7E}"/>
+    <hyperlink ref="I28" r:id="rId4" xr:uid="{E042BE92-CD58-4075-A071-4B3A09485DEE}"/>
+    <hyperlink ref="I10" r:id="rId5" xr:uid="{923AFC17-08B1-4AD5-AB4A-F49FEEFA3BEC}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{C4894D1D-EE76-4C48-BCEF-A73F596BAA3D}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{F1E124BF-F8B3-462B-A495-851CF7F46232}"/>
+    <hyperlink ref="I8" r:id="rId8" xr:uid="{0125B906-1A49-48F1-926E-17E98D5F7360}"/>
+    <hyperlink ref="I12" r:id="rId9" xr:uid="{F776EC2B-BBE8-4493-A932-87C91B75736F}"/>
+    <hyperlink ref="I13" r:id="rId10" xr:uid="{6530AEEE-15DA-40CC-9C80-56491B7D2AB5}"/>
+    <hyperlink ref="I16" r:id="rId11" xr:uid="{354B533E-AE6B-4D10-995D-2E2CE7D75D8A}"/>
+    <hyperlink ref="I18" r:id="rId12" xr:uid="{E88D44C0-FCF9-4D68-914D-FB6014E35C39}"/>
+    <hyperlink ref="I17" r:id="rId13" xr:uid="{D09DD33D-D05C-4448-9139-AD94F4FCFA1B}"/>
+    <hyperlink ref="I3" r:id="rId14" xr:uid="{767704FF-C400-4F90-B6F1-9D33B5A14B1C}"/>
+    <hyperlink ref="I4" r:id="rId15" xr:uid="{6C239A98-5AD8-44E7-8B22-0BEE5936F859}"/>
+    <hyperlink ref="I66" r:id="rId16" xr:uid="{DF11D2D2-F265-4769-80C5-92206328CB82}"/>
+    <hyperlink ref="I65" r:id="rId17" xr:uid="{8E26E8E6-7491-4A28-A0FC-173E24C5257D}"/>
+    <hyperlink ref="I64" r:id="rId18" xr:uid="{738C619A-46CB-4729-BF40-356AE1BA6342}"/>
+    <hyperlink ref="I61" r:id="rId19" xr:uid="{71B308CD-3568-4BEC-A754-5904C1F26182}"/>
+    <hyperlink ref="I48" r:id="rId20" xr:uid="{EC8C155B-E10F-41CA-941B-05D1EE3807A8}"/>
+    <hyperlink ref="I33" r:id="rId21" xr:uid="{C9E51835-D777-4C8A-8B6D-79598CB9D90D}"/>
+    <hyperlink ref="I32" r:id="rId22" xr:uid="{06406781-6B05-4280-99E0-2007222A2286}"/>
+    <hyperlink ref="I31" r:id="rId23" xr:uid="{3D0B6872-F586-4D57-B586-9244EB0BC9CA}"/>
+    <hyperlink ref="I29" r:id="rId24" xr:uid="{D440671E-DDBF-432C-9599-F06EDF3BD0EB}"/>
+    <hyperlink ref="I6" r:id="rId25" xr:uid="{AE71E9AB-F899-4C1F-A48B-0D4833056364}"/>
+    <hyperlink ref="I7" r:id="rId26" xr:uid="{6683988D-DE60-4616-A3DC-FC7742914D6F}"/>
+    <hyperlink ref="I14" r:id="rId27" xr:uid="{EC1B51B0-433F-4EF0-B5D2-CCA573C8B5F2}"/>
+    <hyperlink ref="I63" r:id="rId28" xr:uid="{4D928EF8-119E-49C8-AD3F-E1F24072D4D0}"/>
+    <hyperlink ref="I15" r:id="rId29" xr:uid="{A8D9A3BD-F369-470C-AD04-CFBD40E8EB05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/BOMs/Watch Main BOM.xlsx
+++ b/Documentation/BOMs/Watch Main BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\OneDrive\Documents\Projects\Smart-Watch\Documentation\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD77908-CFB4-4D54-AD93-97CD90F1DF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7981D01E-5325-4862-8CE0-B32D293400B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="480" windowWidth="27630" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="149">
   <si>
     <t xml:space="preserve">DFE201612E-2R2M=P2 </t>
   </si>
@@ -441,6 +441,48 @@
   </si>
   <si>
     <t>https://www.mouser.co.uk/ProductDetail/Panasonic-Industrial-Devices/AXG130144?qs=MNIFWdyJgbpv3UEdzINcSA%3D%3D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQG15HZ1N5S02D </t>
+  </si>
+  <si>
+    <t>LQG15HS2N2B02D</t>
+  </si>
+  <si>
+    <t>LQG15HZ2N7S02D</t>
+  </si>
+  <si>
+    <t>LQG15HS7N5G02D</t>
+  </si>
+  <si>
+    <t>GJM1555C1H6R0CB01D</t>
+  </si>
+  <si>
+    <t>GJM1555C1HR60BB01D</t>
+  </si>
+  <si>
+    <t>GJM1555C1H7R5DB01D</t>
+  </si>
+  <si>
+    <t>GJM1555C1H430JB01D</t>
+  </si>
+  <si>
+    <t>GRM1555C1H121JA01D</t>
+  </si>
+  <si>
+    <t>GRM155R70J222KA01D</t>
+  </si>
+  <si>
+    <t>GRT155C81E224ME01D</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1002X</t>
+  </si>
+  <si>
+    <t>MLG1005S0N6CT000</t>
   </si>
 </sst>
 </file>
@@ -789,21 +831,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -829,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -852,7 +894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>90</v>
       </c>
@@ -865,11 +907,14 @@
       <c r="G4" t="s">
         <v>91</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -882,11 +927,14 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>124</v>
       </c>
@@ -899,11 +947,14 @@
       <c r="G6" t="s">
         <v>125</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>127</v>
       </c>
@@ -916,11 +967,14 @@
       <c r="G7" t="s">
         <v>128</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -933,11 +987,14 @@
       <c r="G8" t="s">
         <v>46</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>36</v>
       </c>
@@ -950,11 +1007,14 @@
       <c r="G9" t="s">
         <v>123</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>33</v>
       </c>
@@ -967,11 +1027,14 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -984,11 +1047,14 @@
       <c r="G11" t="s">
         <v>40</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>49</v>
       </c>
@@ -1008,7 +1074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -1021,11 +1087,14 @@
       <c r="G13" t="s">
         <v>55</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>132</v>
       </c>
@@ -1038,11 +1107,14 @@
       <c r="G14" t="s">
         <v>131</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>30</v>
       </c>
@@ -1055,11 +1127,14 @@
       <c r="G15" t="s">
         <v>31</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>61</v>
       </c>
@@ -1079,7 +1154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>69</v>
       </c>
@@ -1092,11 +1167,14 @@
       <c r="G17" t="s">
         <v>67</v>
       </c>
+      <c r="H17" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -1109,11 +1187,14 @@
       <c r="G18" t="s">
         <v>66</v>
       </c>
+      <c r="H18" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1132,57 +1213,90 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
+      <c r="H20" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
       <c r="D22" t="s">
         <v>118</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
       <c r="D23" t="s">
         <v>119</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
       <c r="D24" t="s">
         <v>120</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
       <c r="D25" t="s">
         <v>122</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
       <c r="D26" t="s">
         <v>121</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -1198,11 +1312,14 @@
       <c r="G27" t="s">
         <v>97</v>
       </c>
+      <c r="H27" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -1218,11 +1335,14 @@
       <c r="G28" t="s">
         <v>21</v>
       </c>
+      <c r="H28" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
@@ -1238,16 +1358,19 @@
       <c r="G29" t="s">
         <v>98</v>
       </c>
+      <c r="H29" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
       <c r="F30" s="3"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>77</v>
       </c>
@@ -1266,11 +1389,14 @@
       <c r="G31" t="s">
         <v>79</v>
       </c>
+      <c r="H31" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>83</v>
       </c>
@@ -1286,11 +1412,14 @@
       <c r="G32" t="s">
         <v>81</v>
       </c>
+      <c r="H32" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>89</v>
       </c>
@@ -1306,62 +1435,101 @@
       <c r="G33" t="s">
         <v>88</v>
       </c>
+      <c r="H33" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>93</v>
       </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
       <c r="D35" t="s">
         <v>108</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
       <c r="D36" t="s">
         <v>102</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
       <c r="D37" t="s">
         <v>112</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
       <c r="D38" t="s">
         <v>111</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
       <c r="D39" t="s">
         <v>109</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
       <c r="D40" t="s">
         <v>107</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>105</v>
       </c>
@@ -1372,7 +1540,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>99</v>
       </c>
@@ -1383,15 +1551,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>146</v>
+      </c>
       <c r="D43" t="s">
         <v>110</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>101</v>
       </c>
@@ -1402,7 +1576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>103</v>
       </c>
@@ -1413,7 +1587,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>104</v>
       </c>
@@ -1424,7 +1598,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>100</v>
       </c>
@@ -1435,7 +1609,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>96</v>
       </c>
@@ -1451,11 +1625,14 @@
       <c r="G48" t="s">
         <v>95</v>
       </c>
+      <c r="H48" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>114</v>
       </c>
@@ -1470,7 +1647,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>113</v>
       </c>
@@ -1482,15 +1659,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
       <c r="D52" t="s">
         <v>115</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>116</v>
       </c>
@@ -1501,7 +1684,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -1527,7 +1710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>47</v>
       </c>
@@ -1547,7 +1730,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>56</v>
       </c>
@@ -1564,7 +1747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>60</v>
       </c>
@@ -1581,7 +1764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>70</v>
       </c>
@@ -1598,10 +1781,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F68" s="3"/>
     </row>
   </sheetData>

--- a/Documentation/BOMs/Watch Main BOM.xlsx
+++ b/Documentation/BOMs/Watch Main BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7981D01E-5325-4862-8CE0-B32D293400B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF7CDD1-039A-4F2C-8A76-0E1683B1E9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2970" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>uSD Card slot</t>
   </si>
   <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Molex/105162-0001?qs=1fNsfHe5VsK8daqlgKxZfQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.digikey.co.uk/en/products/detail/panasonic-electric-works/AXG110144A/5057277?s=N4IgTCBcDaIIIA0DiBGFAGFAWLcQF0BfIA</t>
   </si>
   <si>
@@ -437,12 +434,6 @@
     <t xml:space="preserve">M24256X-FCU6T/VF </t>
   </si>
   <si>
-    <t>AXG130144</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Panasonic-Industrial-Devices/AXG130144?qs=MNIFWdyJgbpv3UEdzINcSA%3D%3D</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -483,6 +474,15 @@
   </si>
   <si>
     <t>MLG1005S0N6CT000</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/en/products/detail/panasonic-electric-works/AXG130144A/5057281</t>
+  </si>
+  <si>
+    <t>AXG130144A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/en/products/detail/molex/1051620001/4555282?s=N4IgTCBcDaIIwAYCscBsYC0DtxAXQF8g</t>
   </si>
 </sst>
 </file>
@@ -827,11 +827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,7 +876,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -885,18 +885,18 @@
         <v>14.25</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -905,13 +905,13 @@
         <v>7.32</v>
       </c>
       <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -945,18 +945,18 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="G6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -965,13 +965,13 @@
         <v>1.86</v>
       </c>
       <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -988,7 +988,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>45</v>
@@ -1005,10 +1005,10 @@
         <v>12.96</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>39</v>
@@ -1028,7 +1028,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
@@ -1048,7 +1048,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>37</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>51</v>
@@ -1088,7 +1088,7 @@
         <v>55</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>54</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1105,13 +1105,13 @@
         <v>0.44</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1128,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>32</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1145,18 +1145,18 @@
         <v>5.64</v>
       </c>
       <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1165,18 +1165,18 @@
         <v>2.8</v>
       </c>
       <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1185,13 +1185,13 @@
         <v>2.46</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>17</v>
@@ -1228,72 +1228,72 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1310,10 +1310,10 @@
         <v>0.26</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>7</v>
@@ -1336,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>22</v>
@@ -1356,10 +1356,10 @@
         <v>0.11</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>43</v>
@@ -1372,13 +1372,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>77</v>
       </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1387,21 +1387,21 @@
         <v>0.54</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1410,21 +1410,21 @@
         <v>0.32</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1433,188 +1433,188 @@
         <v>0.37</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42">
         <v>36</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47">
         <v>13</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1623,18 +1623,18 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="5">
         <v>0</v>
@@ -1644,148 +1644,148 @@
       </c>
       <c r="F50" s="3"/>
       <c r="H50" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51" s="3"/>
       <c r="H51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>117</v>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2.74</v>
+      </c>
+      <c r="G57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0.82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>2.62</v>
-      </c>
-      <c r="G63" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>0.82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>57</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
-        <v>60</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G65" t="s">
-        <v>71</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2.04</v>
-      </c>
-      <c r="G66" t="s">
-        <v>72</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F68" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F62" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1805,20 +1805,18 @@
     <hyperlink ref="I17" r:id="rId13" xr:uid="{D09DD33D-D05C-4448-9139-AD94F4FCFA1B}"/>
     <hyperlink ref="I3" r:id="rId14" xr:uid="{767704FF-C400-4F90-B6F1-9D33B5A14B1C}"/>
     <hyperlink ref="I4" r:id="rId15" xr:uid="{6C239A98-5AD8-44E7-8B22-0BEE5936F859}"/>
-    <hyperlink ref="I66" r:id="rId16" xr:uid="{DF11D2D2-F265-4769-80C5-92206328CB82}"/>
-    <hyperlink ref="I65" r:id="rId17" xr:uid="{8E26E8E6-7491-4A28-A0FC-173E24C5257D}"/>
-    <hyperlink ref="I64" r:id="rId18" xr:uid="{738C619A-46CB-4729-BF40-356AE1BA6342}"/>
-    <hyperlink ref="I61" r:id="rId19" xr:uid="{71B308CD-3568-4BEC-A754-5904C1F26182}"/>
-    <hyperlink ref="I48" r:id="rId20" xr:uid="{EC8C155B-E10F-41CA-941B-05D1EE3807A8}"/>
-    <hyperlink ref="I33" r:id="rId21" xr:uid="{C9E51835-D777-4C8A-8B6D-79598CB9D90D}"/>
-    <hyperlink ref="I32" r:id="rId22" xr:uid="{06406781-6B05-4280-99E0-2007222A2286}"/>
-    <hyperlink ref="I31" r:id="rId23" xr:uid="{3D0B6872-F586-4D57-B586-9244EB0BC9CA}"/>
-    <hyperlink ref="I29" r:id="rId24" xr:uid="{D440671E-DDBF-432C-9599-F06EDF3BD0EB}"/>
-    <hyperlink ref="I6" r:id="rId25" xr:uid="{AE71E9AB-F899-4C1F-A48B-0D4833056364}"/>
-    <hyperlink ref="I7" r:id="rId26" xr:uid="{6683988D-DE60-4616-A3DC-FC7742914D6F}"/>
-    <hyperlink ref="I14" r:id="rId27" xr:uid="{EC1B51B0-433F-4EF0-B5D2-CCA573C8B5F2}"/>
-    <hyperlink ref="I63" r:id="rId28" xr:uid="{4D928EF8-119E-49C8-AD3F-E1F24072D4D0}"/>
-    <hyperlink ref="I15" r:id="rId29" xr:uid="{A8D9A3BD-F369-470C-AD04-CFBD40E8EB05}"/>
+    <hyperlink ref="I60" r:id="rId16" xr:uid="{DF11D2D2-F265-4769-80C5-92206328CB82}"/>
+    <hyperlink ref="I59" r:id="rId17" xr:uid="{8E26E8E6-7491-4A28-A0FC-173E24C5257D}"/>
+    <hyperlink ref="I55" r:id="rId18" xr:uid="{71B308CD-3568-4BEC-A754-5904C1F26182}"/>
+    <hyperlink ref="I48" r:id="rId19" xr:uid="{EC8C155B-E10F-41CA-941B-05D1EE3807A8}"/>
+    <hyperlink ref="I33" r:id="rId20" xr:uid="{C9E51835-D777-4C8A-8B6D-79598CB9D90D}"/>
+    <hyperlink ref="I32" r:id="rId21" xr:uid="{06406781-6B05-4280-99E0-2007222A2286}"/>
+    <hyperlink ref="I31" r:id="rId22" xr:uid="{3D0B6872-F586-4D57-B586-9244EB0BC9CA}"/>
+    <hyperlink ref="I29" r:id="rId23" xr:uid="{D440671E-DDBF-432C-9599-F06EDF3BD0EB}"/>
+    <hyperlink ref="I6" r:id="rId24" xr:uid="{AE71E9AB-F899-4C1F-A48B-0D4833056364}"/>
+    <hyperlink ref="I7" r:id="rId25" xr:uid="{6683988D-DE60-4616-A3DC-FC7742914D6F}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{EC1B51B0-433F-4EF0-B5D2-CCA573C8B5F2}"/>
+    <hyperlink ref="I15" r:id="rId27" xr:uid="{A8D9A3BD-F369-470C-AD04-CFBD40E8EB05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/BOMs/Watch Main BOM.xlsx
+++ b/Documentation/BOMs/Watch Main BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\OneDrive\Documents\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF7CDD1-039A-4F2C-8A76-0E1683B1E9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F828406-C563-4C22-90D3-361923EE0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2970" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32985" yWindow="-16380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="149">
   <si>
     <t xml:space="preserve">DFE201612E-2R2M=P2 </t>
   </si>
@@ -830,22 +830,22 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -894,7 +894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>89</v>
       </c>
@@ -914,7 +914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -934,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>123</v>
       </c>
@@ -954,7 +954,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>126</v>
       </c>
@@ -974,7 +974,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -994,7 +994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>36</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>33</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>131</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>60</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>68</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>63</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>134</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>135</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>136</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
@@ -1365,12 +1365,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="F30" s="3"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>76</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>82</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>88</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>92</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>137</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>139</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>140</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>104</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>98</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>143</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>100</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>102</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>103</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>99</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>113</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>112</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>144</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>115</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>47</v>
       </c>
@@ -1726,11 +1726,14 @@
       <c r="G57" t="s">
         <v>48</v>
       </c>
+      <c r="H57" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="I57" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>56</v>
       </c>
@@ -1743,11 +1746,14 @@
       <c r="G58" t="s">
         <v>57</v>
       </c>
+      <c r="H58" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="I58" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>59</v>
       </c>
@@ -1760,11 +1766,14 @@
       <c r="G59" t="s">
         <v>70</v>
       </c>
+      <c r="H59" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="I59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>69</v>
       </c>
@@ -1777,14 +1786,17 @@
       <c r="G60" t="s">
         <v>71</v>
       </c>
+      <c r="H60" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="I60" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F62" s="3"/>
     </row>
   </sheetData>
@@ -1817,6 +1829,8 @@
     <hyperlink ref="I7" r:id="rId25" xr:uid="{6683988D-DE60-4616-A3DC-FC7742914D6F}"/>
     <hyperlink ref="I14" r:id="rId26" xr:uid="{EC1B51B0-433F-4EF0-B5D2-CCA573C8B5F2}"/>
     <hyperlink ref="I15" r:id="rId27" xr:uid="{A8D9A3BD-F369-470C-AD04-CFBD40E8EB05}"/>
+    <hyperlink ref="I57" r:id="rId28" xr:uid="{D3CBBF69-5860-45BB-8944-6C7297A03CB8}"/>
+    <hyperlink ref="I58" r:id="rId29" xr:uid="{1F1BBFAF-D51B-4EBB-8CFA-16EC0569621C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/BOMs/Watch Main BOM.xlsx
+++ b/Documentation/BOMs/Watch Main BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\OneDrive\Documents\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F828406-C563-4C22-90D3-361923EE0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B9837-B04F-4FF5-94C3-7EC44C455279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32985" yWindow="-16380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1875" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="150">
   <si>
     <t xml:space="preserve">DFE201612E-2R2M=P2 </t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>https://www.digikey.co.uk/en/products/detail/molex/1051620001/4555282?s=N4IgTCBcDaIIwAYCscBsYC0DtxAXQF8g</t>
+  </si>
+  <si>
+    <t>WRONG</t>
   </si>
 </sst>
 </file>
@@ -830,8 +833,8 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,6 +1759,9 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>149</v>
       </c>
       <c r="E59">
         <v>1</v>
